--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB4ADB1-3D2D-488B-A0CF-25F82B15965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="6690" windowWidth="16110" windowHeight="9330"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.11.暗号化・ハッシュ化" sheetId="16" r:id="rId1"/>
@@ -15,21 +16,32 @@
   <definedNames>
     <definedName name="_Ref390955609" localSheetId="0">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
     <definedName name="HASH" localSheetId="0">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.11.暗号化・ハッシュ化'!$A$1:$AI$38</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$21</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$21</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$21</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.11.暗号化・ハッシュ化'!$A$1:$AI$39</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
     <definedName name="ハッシュアルゴリズム">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
     <definedName name="使用可能文字コード一覧">'[1]7.2.文字コード'!$AM$1:$AM$20</definedName>
     <definedName name="通信用プロトコル">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -529,13 +541,17 @@
   </si>
   <si>
     <t>ハッシュの繰り返し計算回数を指定できる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これらの脅威からデータを保護するために暗号化機能を利用する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -995,15 +1011,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1427,11 +1446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1629,109 +1648,75 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="20" t="str">
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="20" t="str">
         <f>$D$7&amp;"2."</f>
         <v>7.11.1.2.</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F15" s="19" t="str">
         <f>$E$7&amp;"方式"</f>
         <v>暗号化方式</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="19" t="s">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="14" t="s">
+    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14" t="s">
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="15" t="s">
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="16"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="16"/>
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -1749,7 +1734,7 @@
       <c r="V18" s="23"/>
       <c r="W18" s="24"/>
       <c r="X18" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
@@ -1764,13 +1749,13 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1788,7 +1773,7 @@
       <c r="V19" s="23"/>
       <c r="W19" s="24"/>
       <c r="X19" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
@@ -1802,202 +1787,208 @@
       <c r="AH19" s="24"/>
     </row>
     <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="24"/>
+    </row>
+    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="25" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="25" t="s">
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="26" t="s">
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="27"/>
-    </row>
-    <row r="21" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="19" t="s">
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="27"/>
+    </row>
+    <row r="22" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="20" t="str">
+    <row r="24" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="20" t="str">
         <f>$C$6&amp;"2."</f>
         <v>7.11.2.</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E24" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="20" t="str">
-        <f>$D$23&amp;"1."</f>
+    <row r="25" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="20" t="str">
+        <f>$D$24&amp;"1."</f>
         <v>7.11.2.1.</v>
       </c>
-      <c r="F24" s="19" t="str">
-        <f>$E$23&amp;"概要"</f>
+      <c r="F25" s="19" t="str">
+        <f>$E$24&amp;"概要"</f>
         <v>項目暗号化概要</v>
       </c>
     </row>
-    <row r="25" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="19" t="s">
+    <row r="26" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="20" t="str">
-        <f>$D$23&amp;"2."</f>
+    <row r="28" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="20" t="str">
+        <f>$D$24&amp;"2."</f>
         <v>7.11.2.2.</v>
       </c>
-      <c r="F27" s="19" t="str">
-        <f>$E$23&amp;"詳細"</f>
+      <c r="F28" s="19" t="str">
+        <f>$E$24&amp;"詳細"</f>
         <v>項目暗号化詳細</v>
       </c>
     </row>
-    <row r="28" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="14" t="s">
+    <row r="29" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="14" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="14" t="s">
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="15" t="s">
+      <c r="O29" s="15"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="21" t="s">
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="18"/>
-    </row>
-    <row r="29" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="22" t="s">
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="18"/>
+    </row>
+    <row r="30" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="22" t="s">
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="22" t="s">
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="28" t="s">
+      <c r="O30" s="23"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="28" t="s">
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="51"/>
-    </row>
-    <row r="30" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F30" s="31" t="s">
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="51"/>
+    </row>
+    <row r="31" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="53"/>
-    </row>
-    <row r="31" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="31"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
@@ -2013,7 +2004,7 @@
       <c r="S31" s="35"/>
       <c r="T31" s="36"/>
       <c r="U31" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V31" s="52"/>
       <c r="W31" s="52"/>
@@ -2030,114 +2021,114 @@
       <c r="AH31" s="53"/>
     </row>
     <row r="32" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="56"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="53"/>
     </row>
     <row r="33" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="56"/>
+    </row>
+    <row r="34" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="22" t="s">
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="22" t="s">
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="22" t="s">
+      <c r="O34" s="23"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="28" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="51"/>
-    </row>
-    <row r="34" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="31" t="s">
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="50"/>
+      <c r="AC34" s="50"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="51"/>
+    </row>
+    <row r="35" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="53"/>
-    </row>
-    <row r="35" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="31"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -2153,7 +2144,7 @@
       <c r="S35" s="45"/>
       <c r="T35" s="46"/>
       <c r="U35" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V35" s="52"/>
       <c r="W35" s="52"/>
@@ -2186,7 +2177,7 @@
       <c r="S36" s="45"/>
       <c r="T36" s="46"/>
       <c r="U36" s="34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V36" s="52"/>
       <c r="W36" s="52"/>
@@ -2203,35 +2194,68 @@
       <c r="AH36" s="53"/>
     </row>
     <row r="37" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="56"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="52"/>
+      <c r="AG37" s="52"/>
+      <c r="AH37" s="53"/>
+    </row>
+    <row r="38" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="55"/>
+      <c r="AH38" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2249,7 +2273,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q37 R33:T37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q38 R34:T38" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB4ADB1-3D2D-488B-A0CF-25F82B15965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96775A3F-791E-4FC6-8B5E-AE0B8E86CB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,13 +79,6 @@
     <t>アプリケーション方式設計書</t>
   </si>
   <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理方式共通</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -545,6 +538,13 @@
   </si>
   <si>
     <t>これらの脅威からデータを保護するために暗号化機能を利用する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S1" s="65"/>
       <c r="T1" s="65"/>
@@ -1593,10 +1593,10 @@
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1605,7 +1605,7 @@
         <v>7.11.</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1614,7 +1614,7 @@
         <v>7.11.1.</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1630,27 +1630,27 @@
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1666,18 +1666,18 @@
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -1689,13 +1689,13 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="16"/>
       <c r="X17" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
@@ -1728,13 +1728,13 @@
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
       <c r="T18" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
       <c r="W18" s="24"/>
       <c r="X18" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
@@ -1749,13 +1749,13 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -1767,13 +1767,13 @@
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
       <c r="T19" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U19" s="23"/>
       <c r="V19" s="23"/>
       <c r="W19" s="24"/>
       <c r="X19" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
@@ -1806,13 +1806,13 @@
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
       <c r="T20" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
       <c r="W20" s="24"/>
       <c r="X20" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
@@ -1827,13 +1827,13 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
       <c r="J21" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
@@ -1845,13 +1845,13 @@
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
       <c r="T21" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U21" s="26"/>
       <c r="V21" s="26"/>
       <c r="W21" s="27"/>
       <c r="X21" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="22" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1875,7 +1875,7 @@
         <v>7.11.2.</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="26" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1905,30 +1905,30 @@
     </row>
     <row r="29" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O29" s="15"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="16"/>
       <c r="U29" s="21" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="V29" s="17"/>
       <c r="W29" s="17"/>
@@ -1946,30 +1946,30 @@
     </row>
     <row r="30" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O30" s="23"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
       <c r="U30" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V30" s="50"/>
       <c r="W30" s="50"/>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="31" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -2004,7 +2004,7 @@
       <c r="S31" s="35"/>
       <c r="T31" s="36"/>
       <c r="U31" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V31" s="52"/>
       <c r="W31" s="52"/>
@@ -2037,7 +2037,7 @@
       <c r="S32" s="35"/>
       <c r="T32" s="36"/>
       <c r="U32" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V32" s="52"/>
       <c r="W32" s="52"/>
@@ -2086,30 +2086,30 @@
     </row>
     <row r="34" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="23"/>
       <c r="N34" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O34" s="23"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R34" s="43"/>
       <c r="S34" s="43"/>
       <c r="T34" s="44"/>
       <c r="U34" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V34" s="50"/>
       <c r="W34" s="50"/>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="35" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -2144,7 +2144,7 @@
       <c r="S35" s="45"/>
       <c r="T35" s="46"/>
       <c r="U35" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V35" s="52"/>
       <c r="W35" s="52"/>
@@ -2177,7 +2177,7 @@
       <c r="S36" s="45"/>
       <c r="T36" s="46"/>
       <c r="U36" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V36" s="52"/>
       <c r="W36" s="52"/>
@@ -2210,7 +2210,7 @@
       <c r="S37" s="45"/>
       <c r="T37" s="46"/>
       <c r="U37" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V37" s="52"/>
       <c r="W37" s="52"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96775A3F-791E-4FC6-8B5E-AE0B8E86CB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90EE9B-2BAF-4A55-BAC7-A27FBB59E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_Ref390955609" localSheetId="0">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
     <definedName name="HASH" localSheetId="0">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.11.暗号化・ハッシュ化'!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.11.暗号化・ハッシュ化'!$A$1:$AI$48</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アルゴリズム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>可逆/不可逆</t>
     <rPh sb="0" eb="2">
       <t>カギャク</t>
@@ -114,16 +110,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不可逆</t>
-    <rPh sb="0" eb="2">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>パスワードや個人情報などに対して暗号化を行う。</t>
     <rPh sb="6" eb="8">
       <t>コジン</t>
@@ -156,30 +142,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>暗号化・復号区分</t>
-    <rPh sb="0" eb="3">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フクゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>暗号化</t>
-    <rPh sb="0" eb="3">
-      <t>アンゴウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>可逆</t>
     <rPh sb="0" eb="2">
       <t>カギャク</t>
@@ -187,9 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PBKDF2</t>
-  </si>
-  <si>
     <t>セキュリティに対する脅威としては、秘密が漏れる盗聴、情報が書き換えられる改ざん、正しい送信者のふりをするなりすまし、</t>
     <rPh sb="7" eb="8">
       <t>タイ</t>
@@ -487,63 +446,191 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインユーザ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JDBCアクセスの</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対象外</t>
-    <rPh sb="0" eb="3">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RFC 2898 として提案されている方法であり、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチアプリケーションからのDBアクセスに利用する</t>
+    <t>これらの脅威からデータを保護するために暗号化機能を利用する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードのハッシュ化に利用することが推奨されている。</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインユーザパスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインユーザのパスワードをデータベースに保存する際は、不可逆の暗号化（ハッシュ化）を行ったうえで格納する。</t>
     <rPh sb="21" eb="23">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>複数で作業することで、情報漏洩対策とする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワードは暗号化しない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アクセス権限コントロールと保守時に</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ストレッチングのための、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハッシュの繰り返し計算回数を指定できる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これらの脅威からデータを保護するために暗号化機能を利用する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>詳細</t>
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これにより、万が一データが漏洩した場合でも、被害を最小限におさえることができる。</t>
+    <rPh sb="6" eb="7">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ロウエイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>サイショウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハッシュ化のアルゴリズムとしてはPBKDF2を採用する。これは、RFC2898で規定された鍵導出関数で、RFC8081では</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JDBCアクセスのパスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/examples/01/0101_PBKDF2PasswordEncryptor.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PBKDF2の実装方法については、下記Nablarchが提供する実装サンプルをベースに設計する。</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストレッチングの回数やソルトの長さの決定方法についても解説されているので、参考にすること。</t>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチアプリケーションではコネクションプールをアプリ内で作成するため、JDBCアクセスする際のパスワードを</t>
+    <rPh sb="26" eb="27">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリのjar内に同梱する設定ファイルに記載する必要がある。</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウコン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮にこのパスワードを暗号化したとしても、本番のjarにアクセスできている時点で復号のためのキーにもアクセス</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可能と考えられるため、JDBCアクセスのパスワードの暗号化は行わないものとする。</t>
     <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代わりに、本番サーバーや設定ファイルにアクセスできるメンバーを制限・管理することで情報漏洩対策とする。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -555,7 +642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +684,15 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -759,15 +855,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,12 +916,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -831,9 +924,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -852,95 +942,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1009,7 +1012,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1450,13 +1454,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI38"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="19"/>
+    <col min="1" max="16384" width="3.625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1466,43 +1470,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="34"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="28"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1511,43 +1515,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="43"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="28"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1556,128 +1560,128 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="28"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="18" t="str">
         <f>$B$5&amp;"11."</f>
         <v>7.11.</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="18" t="str">
         <f>$C$6&amp;"1."</f>
         <v>7.11.1.</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>24</v>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="str">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="str">
         <f>$D$7&amp;"1."</f>
         <v>7.11.1.1.</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="17" t="str">
         <f>$E$7&amp;"機能概要"</f>
         <v>暗号化機能概要</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F9" s="19" t="s">
-        <v>25</v>
+      <c r="F9" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F10" s="19" t="s">
-        <v>26</v>
+      <c r="F10" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F11" s="19" t="s">
-        <v>22</v>
+      <c r="F11" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="19" t="s">
-        <v>23</v>
+      <c r="F12" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="19" t="s">
-        <v>57</v>
+      <c r="F13" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="18" t="str">
         <f>$D$7&amp;"2."</f>
         <v>7.11.1.2.</v>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="17" t="str">
         <f>$E$7&amp;"方式"</f>
         <v>暗号化方式</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="19" t="s">
-        <v>34</v>
+      <c r="F16" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -1689,13 +1693,13 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
       <c r="W17" s="16"/>
       <c r="X17" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
@@ -1709,553 +1713,298 @@
       <c r="AH17" s="16"/>
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="21"/>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="21"/>
+    </row>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="22" t="s">
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
+    </row>
+    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="23" t="s">
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="24"/>
+    </row>
+    <row r="22" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="24"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="24"/>
-    </row>
-    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="27"/>
-    </row>
-    <row r="22" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="19" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="24" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="20" t="str">
+      <c r="D24" s="18" t="str">
         <f>$C$6&amp;"2."</f>
         <v>7.11.2.</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>42</v>
+      <c r="E24" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="20" t="str">
+      <c r="E25" s="18" t="str">
         <f>$D$24&amp;"1."</f>
         <v>7.11.2.1.</v>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="F25" s="17" t="str">
         <f>$E$24&amp;"概要"</f>
         <v>項目暗号化概要</v>
       </c>
     </row>
     <row r="26" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F26" s="19" t="s">
-        <v>15</v>
+      <c r="F26" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="20" t="str">
+      <c r="E28" s="18" t="str">
         <f>$D$24&amp;"2."</f>
         <v>7.11.2.2.</v>
       </c>
-      <c r="F28" s="19" t="str">
+      <c r="F28" s="17" t="str">
         <f>$E$24&amp;"詳細"</f>
         <v>項目暗号化詳細</v>
       </c>
     </row>
     <row r="29" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" s="15"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="18"/>
+      <c r="G30" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="18"/>
+      <c r="G31" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="18"/>
+      <c r="G33" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="18"/>
+      <c r="G34" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="18"/>
+      <c r="G36" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="18"/>
+      <c r="G37" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="18"/>
+      <c r="G39" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="18"/>
+      <c r="F41" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="28" t="s">
+    </row>
+    <row r="42" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="18"/>
+      <c r="G42" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="51"/>
-    </row>
-    <row r="31" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="53"/>
-    </row>
-    <row r="32" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="53"/>
-    </row>
-    <row r="33" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="55"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="56"/>
-    </row>
-    <row r="34" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="28" t="s">
+    </row>
+    <row r="43" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="18"/>
+      <c r="G43" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="50"/>
-      <c r="AC34" s="50"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
-      <c r="AG34" s="50"/>
-      <c r="AH34" s="51"/>
-    </row>
-    <row r="35" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="34" t="s">
+    </row>
+    <row r="44" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="18"/>
+      <c r="G44" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="18"/>
+      <c r="G45" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="53"/>
-    </row>
-    <row r="36" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="34" t="s">
+    </row>
+    <row r="46" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="18"/>
+      <c r="G46" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="53"/>
-    </row>
-    <row r="37" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="53"/>
-    </row>
-    <row r="38" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="55"/>
-      <c r="AG38" s="55"/>
-      <c r="AH38" s="56"/>
+    </row>
+    <row r="47" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2272,12 +2021,13 @@
     <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q38 R34:T38" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G39" r:id="rId1" xr:uid="{D292B16D-0BA4-4383-9A52-70605D561E1C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="23" max="34" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90EE9B-2BAF-4A55-BAC7-A27FBB59E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BAA6C8-591E-4869-BBCF-FED41D227623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,28 +539,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ストレッチングの回数やソルトの長さの決定方法についても解説されているので、参考にすること。</t>
-    <rPh sb="8" eb="10">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カイセツ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バッチアプリケーションではコネクションプールをアプリ内で作成するため、JDBCアクセスする際のパスワードを</t>
     <rPh sb="26" eb="27">
       <t>ナイ</t>
@@ -631,6 +609,31 @@
     <t>代わりに、本番サーバーや設定ファイルにアクセスできるメンバーを制限・管理することで情報漏洩対策とする。</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストレッチングの回数やソルトの長さの決定方法についても解説されているので、これに従って決定すること。</t>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1952,7 +1955,7 @@
     <row r="37" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="18"/>
       <c r="G37" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1976,31 +1979,31 @@
     <row r="42" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E42" s="18"/>
       <c r="G42" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="18"/>
       <c r="G43" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="18"/>
       <c r="G44" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E45" s="18"/>
       <c r="G45" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="18"/>
       <c r="G46" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BAA6C8-591E-4869-BBCF-FED41D227623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="6690" windowWidth="16110" windowHeight="9330"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.11.暗号化・ハッシュ化" sheetId="16" r:id="rId1"/>
@@ -15,21 +16,32 @@
   <definedNames>
     <definedName name="_Ref390955609" localSheetId="0">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
     <definedName name="HASH" localSheetId="0">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.11.暗号化・ハッシュ化'!$A$1:$AI$38</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$21</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$21</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$21</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.11.暗号化・ハッシュ化'!$A$1:$AI$48</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
     <definedName name="ハッシュアルゴリズム">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
     <definedName name="使用可能文字コード一覧">'[1]7.2.文字コード'!$AM$1:$AM$20</definedName>
     <definedName name="通信用プロトコル">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -67,13 +79,6 @@
     <t>アプリケーション方式設計書</t>
   </si>
   <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>処理方式共通</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -92,10 +97,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アルゴリズム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>可逆/不可逆</t>
     <rPh sb="0" eb="2">
       <t>カギャク</t>
@@ -109,16 +110,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不可逆</t>
-    <rPh sb="0" eb="2">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>パスワードや個人情報などに対して暗号化を行う。</t>
     <rPh sb="6" eb="8">
       <t>コジン</t>
@@ -151,30 +142,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>暗号化・復号区分</t>
-    <rPh sb="0" eb="3">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フクゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>暗号化</t>
-    <rPh sb="0" eb="3">
-      <t>アンゴウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>可逆</t>
     <rPh sb="0" eb="2">
       <t>カギャク</t>
@@ -182,9 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PBKDF2</t>
-  </si>
-  <si>
     <t>セキュリティに対する脅威としては、秘密が漏れる盗聴、情報が書き換えられる改ざん、正しい送信者のふりをするなりすまし、</t>
     <rPh sb="7" eb="8">
       <t>タイ</t>
@@ -482,64 +446,206 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインユーザ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JDBCアクセスの</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対象外</t>
-    <rPh sb="0" eb="3">
-      <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RFC 2898 として提案されている方法であり、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バッチアプリケーションからのDBアクセスに利用する</t>
+    <t>これらの脅威からデータを保護するために暗号化機能を利用する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードのハッシュ化に利用することが推奨されている。</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインユーザパスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインユーザのパスワードをデータベースに保存する際は、不可逆の暗号化（ハッシュ化）を行ったうえで格納する。</t>
     <rPh sb="21" eb="23">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>複数で作業することで、情報漏洩対策とする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワードは暗号化しない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アクセス権限コントロールと保守時に</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ストレッチングのための、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハッシュの繰り返し計算回数を指定できる。</t>
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これにより、万が一データが漏洩した場合でも、被害を最小限におさえることができる。</t>
+    <rPh sb="6" eb="7">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ロウエイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>サイショウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハッシュ化のアルゴリズムとしてはPBKDF2を採用する。これは、RFC2898で規定された鍵導出関数で、RFC8081では</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JDBCアクセスのパスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/examples/01/0101_PBKDF2PasswordEncryptor.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PBKDF2の実装方法については、下記Nablarchが提供する実装サンプルをベースに設計する。</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチアプリケーションではコネクションプールをアプリ内で作成するため、JDBCアクセスする際のパスワードを</t>
+    <rPh sb="26" eb="27">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリのjar内に同梱する設定ファイルに記載する必要がある。</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウコン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仮にこのパスワードを暗号化したとしても、本番のjarにアクセスできている時点で復号のためのキーにもアクセス</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可能と考えられるため、JDBCアクセスのパスワードの暗号化は行わないものとする。</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>代わりに、本番サーバーや設定ファイルにアクセスできるメンバーを制限・管理することで情報漏洩対策とする。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストレッチングの回数やソルトの長さの決定方法についても解説されているので、これに従って決定すること。</t>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケッテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +687,15 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -743,15 +858,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -801,12 +919,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -815,9 +927,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -836,95 +945,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -993,17 +1015,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1427,17 +1453,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="19"/>
+    <col min="1" max="16384" width="3.625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1447,43 +1473,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="34"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="28"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1492,43 +1518,43 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="8"/>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="43"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="28"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1537,701 +1563,451 @@
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="46"/>
       <c r="Y3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="28"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="18" t="str">
         <f>$B$5&amp;"11."</f>
         <v>7.11.</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>12</v>
+      <c r="D6" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="20" t="str">
+      <c r="D7" s="18" t="str">
         <f>$C$6&amp;"1."</f>
         <v>7.11.1.</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>25</v>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="20"/>
-      <c r="E8" s="20" t="str">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="str">
         <f>$D$7&amp;"1."</f>
         <v>7.11.1.1.</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="17" t="str">
         <f>$E$7&amp;"機能概要"</f>
         <v>暗号化機能概要</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F9" s="19" t="s">
-        <v>26</v>
+      <c r="F9" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F10" s="19" t="s">
-        <v>27</v>
+      <c r="F10" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F11" s="19" t="s">
-        <v>23</v>
+      <c r="F11" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="20" t="str">
+      <c r="F12" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="18" t="str">
         <f>$D$7&amp;"2."</f>
         <v>7.11.1.2.</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F15" s="17" t="str">
         <f>$E$7&amp;"方式"</f>
         <v>暗号化方式</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="19" t="s">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="16"/>
+    </row>
+    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="21"/>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="21"/>
+    </row>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
+    </row>
+    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="15" t="s">
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="24"/>
+    </row>
+    <row r="22" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="16"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="24"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="27"/>
-    </row>
-    <row r="21" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="20" t="str">
+    </row>
+    <row r="24" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="18" t="str">
         <f>$C$6&amp;"2."</f>
         <v>7.11.2.</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E24" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="18" t="str">
+        <f>$D$24&amp;"1."</f>
+        <v>7.11.2.1.</v>
+      </c>
+      <c r="F25" s="17" t="str">
+        <f>$E$24&amp;"概要"</f>
+        <v>項目暗号化概要</v>
+      </c>
+    </row>
+    <row r="26" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="18" t="str">
+        <f>$D$24&amp;"2."</f>
+        <v>7.11.2.2.</v>
+      </c>
+      <c r="F28" s="17" t="str">
+        <f>$E$24&amp;"詳細"</f>
+        <v>項目暗号化詳細</v>
+      </c>
+    </row>
+    <row r="29" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="18"/>
+      <c r="F29" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="18"/>
+      <c r="G30" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="20" t="str">
-        <f>$D$23&amp;"1."</f>
-        <v>7.11.2.1.</v>
-      </c>
-      <c r="F24" s="19" t="str">
-        <f>$E$23&amp;"概要"</f>
-        <v>項目暗号化概要</v>
-      </c>
-    </row>
-    <row r="25" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="20" t="str">
-        <f>$D$23&amp;"2."</f>
-        <v>7.11.2.2.</v>
-      </c>
-      <c r="F27" s="19" t="str">
-        <f>$E$23&amp;"詳細"</f>
-        <v>項目暗号化詳細</v>
-      </c>
-    </row>
-    <row r="28" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="18"/>
-    </row>
-    <row r="29" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="22" t="s">
+    <row r="31" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="18"/>
+      <c r="G31" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="18"/>
+      <c r="G33" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="18"/>
+      <c r="G34" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="18"/>
+      <c r="G36" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="18"/>
+      <c r="G37" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="18"/>
+      <c r="G39" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="28" t="s">
+    </row>
+    <row r="40" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="18"/>
+      <c r="F41" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="18"/>
+      <c r="G42" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="18"/>
+      <c r="G43" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="18"/>
+      <c r="G44" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
-      <c r="AF29" s="50"/>
-      <c r="AG29" s="50"/>
-      <c r="AH29" s="51"/>
-    </row>
-    <row r="30" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F30" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="53"/>
-    </row>
-    <row r="31" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="53"/>
-    </row>
-    <row r="32" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="56"/>
-    </row>
-    <row r="33" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="28" t="s">
+    </row>
+    <row r="45" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="18"/>
+      <c r="G45" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="50"/>
-      <c r="AC33" s="50"/>
-      <c r="AD33" s="50"/>
-      <c r="AE33" s="50"/>
-      <c r="AF33" s="50"/>
-      <c r="AG33" s="50"/>
-      <c r="AH33" s="51"/>
-    </row>
-    <row r="34" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="53"/>
-    </row>
-    <row r="35" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="53"/>
-    </row>
-    <row r="36" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="34" t="s">
+    </row>
+    <row r="46" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="18"/>
+      <c r="G46" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="53"/>
-    </row>
-    <row r="37" spans="6:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="54"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="56"/>
+    </row>
+    <row r="47" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2248,12 +2024,13 @@
     <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q37 R33:T37">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G39" r:id="rId1" xr:uid="{D292B16D-0BA4-4383-9A52-70605D561E1C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="23" max="34" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.11暗号化・ハッシュ化.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BAA6C8-591E-4869-BBCF-FED41D227623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870D212-D1DE-4040-86CB-591E743FA2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_Ref390955609" localSheetId="0">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
     <definedName name="HASH" localSheetId="0">'7.11.暗号化・ハッシュ化'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.11.暗号化・ハッシュ化'!$A$1:$AI$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.11.暗号化・ハッシュ化'!$A$1:$AI$38</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.11.暗号化・ハッシュ化'!$A$1:$AI$22</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -110,25 +110,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワードや個人情報などに対して暗号化を行う。</t>
-    <rPh sb="6" eb="8">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>暗号化・復号対象</t>
     <rPh sb="0" eb="3">
       <t>アンゴウカ</t>
@@ -321,29 +302,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワードなどの機密情報</t>
-    <rPh sb="8" eb="10">
-      <t>キミツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>可逆／不可逆</t>
-    <rPh sb="0" eb="2">
-      <t>カギャク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ギャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>暗号化方式</t>
     <rPh sb="0" eb="3">
       <t>アンゴウカ</t>
@@ -467,16 +425,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインユーザのパスワードをデータベースに保存する際は、不可逆の暗号化（ハッシュ化）を行ったうえで格納する。</t>
-    <rPh sb="21" eb="23">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これにより、万が一データが漏洩した場合でも、被害を最小限におさえることができる。</t>
     <rPh sb="6" eb="7">
       <t>マン</t>
@@ -509,10 +457,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>JDBCアクセスのパスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://nablarch.github.io/docs/5u21/doc/examples/01/0101_PBKDF2PasswordEncryptor.html</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -539,80 +483,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バッチアプリケーションではコネクションプールをアプリ内で作成するため、JDBCアクセスする際のパスワードを</t>
-    <rPh sb="26" eb="27">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アプリのjar内に同梱する設定ファイルに記載する必要がある。</t>
-    <rPh sb="7" eb="8">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウコン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仮にこのパスワードを暗号化したとしても、本番のjarにアクセスできている時点で復号のためのキーにもアクセス</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホンバン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>フクゴウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>可能と考えられるため、JDBCアクセスのパスワードの暗号化は行わないものとする。</t>
-    <rPh sb="0" eb="2">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>代わりに、本番サーバーや設定ファイルにアクセスできるメンバーを制限・管理することで情報漏洩対策とする。</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ストレッチングの回数やソルトの長さの決定方法についても解説されているので、これに従って決定すること。</t>
     <rPh sb="8" eb="10">
       <t>カイスウ</t>
@@ -634,6 +504,26 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、ログインユーザのパスワードをデータベースに保存する際に、不可逆の暗号化（ハッシュ化）を行ったうえで格納する。</t>
+    <rPh sb="29" eb="31">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不可逆</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギャク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -869,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +903,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1457,7 +1350,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI47"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1382,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S1" s="33"/>
       <c r="T1" s="33"/>
@@ -1621,7 +1514,7 @@
         <v>7.11.1.</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1637,27 +1530,27 @@
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F9" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1673,18 +1566,18 @@
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -1702,7 +1595,7 @@
       <c r="V17" s="15"/>
       <c r="W17" s="16"/>
       <c r="X17" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
@@ -1717,13 +1610,13 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -1735,13 +1628,13 @@
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
       <c r="T18" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="21"/>
       <c r="X18" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
@@ -1756,13 +1649,13 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -1774,13 +1667,13 @@
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
       <c r="T19" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="21"/>
       <c r="X19" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
@@ -1795,13 +1688,13 @@
     </row>
     <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -1813,13 +1706,13 @@
       <c r="R20" s="20"/>
       <c r="S20" s="20"/>
       <c r="T20" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="21"/>
       <c r="X20" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
@@ -1834,13 +1727,13 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="22" t="s">
-        <v>29</v>
+      <c r="J21" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -1852,13 +1745,13 @@
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
       <c r="T21" s="22" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="U21" s="23"/>
       <c r="V21" s="23"/>
       <c r="W21" s="24"/>
       <c r="X21" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
@@ -1873,7 +1766,7 @@
     </row>
     <row r="22" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1882,7 +1775,7 @@
         <v>7.11.2.</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1896,118 +1789,65 @@
       </c>
     </row>
     <row r="26" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="18"/>
       <c r="F26" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="18" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="18"/>
+      <c r="F27" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="18" t="str">
         <f>$D$24&amp;"2."</f>
         <v>7.11.2.2.</v>
       </c>
-      <c r="F28" s="17" t="str">
-        <f>$E$24&amp;"詳細"</f>
-        <v>項目暗号化詳細</v>
-      </c>
-    </row>
-    <row r="29" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="18"/>
-      <c r="F29" s="17" t="s">
-        <v>42</v>
+      <c r="F29" s="17" t="str">
+        <f>$E$24&amp;"方式"</f>
+        <v>項目暗号化方式</v>
       </c>
     </row>
     <row r="30" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="18"/>
-      <c r="G30" s="17" t="s">
-        <v>43</v>
+      <c r="F30" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="18"/>
-      <c r="G31" s="17" t="s">
-        <v>44</v>
+      <c r="F31" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="4:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="18"/>
     </row>
-    <row r="33" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="18"/>
-      <c r="G33" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="18"/>
-      <c r="G34" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="18"/>
-      <c r="G36" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="18"/>
-      <c r="G37" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="18"/>
-      <c r="G39" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="18"/>
-      <c r="F41" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="18"/>
-      <c r="G42" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="18"/>
-      <c r="G43" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="18"/>
-      <c r="G44" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="18"/>
-      <c r="G45" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="18"/>
-      <c r="G46" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2025,7 +1865,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="G39" r:id="rId1" xr:uid="{D292B16D-0BA4-4383-9A52-70605D561E1C}"/>
+    <hyperlink ref="F36" r:id="rId1" xr:uid="{D292B16D-0BA4-4383-9A52-70605D561E1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
